--- a/code/build/results_MyFireflyD50_local_search/results_cec2017_50.xlsx
+++ b/code/build/results_MyFireflyD50_local_search/results_cec2017_50.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>139061360000</v>
+        <v>18887380000</v>
       </c>
       <c r="D2" t="n">
-        <v>2.410039098064402e+86</v>
+        <v>3.385819e+67</v>
       </c>
       <c r="E2" t="n">
-        <v>410102.42</v>
+        <v>464527.4</v>
       </c>
       <c r="F2" t="n">
-        <v>37684</v>
+        <v>19472.02</v>
       </c>
       <c r="G2" t="n">
-        <v>827.02466</v>
+        <v>573.9414</v>
       </c>
       <c r="H2" t="n">
-        <v>114.96306</v>
+        <v>80.93741</v>
       </c>
       <c r="I2" t="n">
-        <v>4963.211</v>
+        <v>2111.322</v>
       </c>
       <c r="J2" t="n">
-        <v>944.44356</v>
+        <v>754.0438</v>
       </c>
       <c r="K2" t="n">
-        <v>54881.588</v>
+        <v>27884.9</v>
       </c>
       <c r="L2" t="n">
-        <v>12238.156</v>
+        <v>7696.662</v>
       </c>
       <c r="M2" t="n">
-        <v>49858.752</v>
+        <v>66743.94</v>
       </c>
       <c r="N2" t="n">
-        <v>53318480000</v>
+        <v>7089929000</v>
       </c>
       <c r="O2" t="n">
-        <v>36763709800</v>
+        <v>11763880000</v>
       </c>
       <c r="P2" t="n">
-        <v>49843691</v>
+        <v>30662770</v>
       </c>
       <c r="Q2" t="n">
-        <v>20280148000</v>
+        <v>1421530000</v>
       </c>
       <c r="R2" t="n">
-        <v>7420.383800000001</v>
+        <v>2890.818</v>
       </c>
       <c r="S2" t="n">
-        <v>77908.5368</v>
+        <v>3006.527</v>
       </c>
       <c r="T2" t="n">
-        <v>204030780</v>
+        <v>380980900</v>
       </c>
       <c r="U2" t="n">
-        <v>5907145000</v>
+        <v>1038284000</v>
       </c>
       <c r="V2" t="n">
-        <v>2674.8806</v>
+        <v>2119.238</v>
       </c>
       <c r="W2" t="n">
-        <v>1126.54284</v>
+        <v>856.6323</v>
       </c>
       <c r="X2" t="n">
-        <v>11942.282</v>
+        <v>7002.375</v>
       </c>
       <c r="Y2" t="n">
-        <v>2456.7178</v>
+        <v>1764.157</v>
       </c>
       <c r="Z2" t="n">
-        <v>2026.0822</v>
+        <v>1922.988</v>
       </c>
       <c r="AA2" t="n">
-        <v>12387.0462</v>
+        <v>17236.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>21089.876</v>
+        <v>12481.22</v>
       </c>
       <c r="AC2" t="n">
-        <v>4379.5306</v>
+        <v>2105.385</v>
       </c>
       <c r="AD2" t="n">
-        <v>10169.7912</v>
+        <v>7276.154</v>
       </c>
       <c r="AE2" t="n">
-        <v>8468.798200000001</v>
+        <v>12128.84</v>
       </c>
       <c r="AF2" t="n">
-        <v>5223219460</v>
+        <v>3061840000</v>
       </c>
       <c r="AG2" t="n">
         <v>50</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>139061360000</v>
+        <v>10133090000</v>
       </c>
       <c r="D3" t="n">
-        <v>3.17255939264402e+85</v>
+        <v>4.421435999999999e+40</v>
       </c>
       <c r="E3" t="n">
-        <v>410048.68</v>
+        <v>454791.7</v>
       </c>
       <c r="F3" t="n">
-        <v>37680.094</v>
+        <v>12555.36</v>
       </c>
       <c r="G3" t="n">
-        <v>827.02466</v>
+        <v>565.2827</v>
       </c>
       <c r="H3" t="n">
-        <v>114.96306</v>
+        <v>74.85021999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>4963.211</v>
+        <v>1191.928</v>
       </c>
       <c r="J3" t="n">
-        <v>944.44356</v>
+        <v>738.5417</v>
       </c>
       <c r="K3" t="n">
-        <v>54881.588</v>
+        <v>25684.06</v>
       </c>
       <c r="L3" t="n">
-        <v>12238.156</v>
+        <v>7547.211</v>
       </c>
       <c r="M3" t="n">
-        <v>49703.446</v>
+        <v>34907.89</v>
       </c>
       <c r="N3" t="n">
-        <v>53317226000</v>
+        <v>429432900</v>
       </c>
       <c r="O3" t="n">
-        <v>31991963800</v>
+        <v>441180100</v>
       </c>
       <c r="P3" t="n">
-        <v>49843691</v>
+        <v>22684560</v>
       </c>
       <c r="Q3" t="n">
-        <v>18818440000</v>
+        <v>35821340</v>
       </c>
       <c r="R3" t="n">
-        <v>6499.9454</v>
+        <v>2642.3</v>
       </c>
       <c r="S3" t="n">
-        <v>77908.5368</v>
+        <v>2955.819</v>
       </c>
       <c r="T3" t="n">
-        <v>204030780</v>
+        <v>192772300</v>
       </c>
       <c r="U3" t="n">
-        <v>3439970920</v>
+        <v>22117940</v>
       </c>
       <c r="V3" t="n">
-        <v>2584.1048</v>
+        <v>2115.643</v>
       </c>
       <c r="W3" t="n">
-        <v>1120.09844</v>
+        <v>845.2811</v>
       </c>
       <c r="X3" t="n">
-        <v>11942.282</v>
+        <v>6992.681</v>
       </c>
       <c r="Y3" t="n">
-        <v>2373.9102</v>
+        <v>1704.174</v>
       </c>
       <c r="Z3" t="n">
-        <v>2026.0822</v>
+        <v>1914.42</v>
       </c>
       <c r="AA3" t="n">
-        <v>12387.0462</v>
+        <v>2938.125</v>
       </c>
       <c r="AB3" t="n">
-        <v>20979.588</v>
+        <v>12344.79</v>
       </c>
       <c r="AC3" t="n">
-        <v>3462.7714</v>
+        <v>1977.863</v>
       </c>
       <c r="AD3" t="n">
-        <v>10165.9518</v>
+        <v>2689.227</v>
       </c>
       <c r="AE3" t="n">
-        <v>8329.5874</v>
+        <v>3556.926</v>
       </c>
       <c r="AF3" t="n">
-        <v>4686056860</v>
+        <v>718491500</v>
       </c>
       <c r="AG3" t="n">
         <v>50</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>139061360000</v>
+        <v>1828255000</v>
       </c>
       <c r="D4" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>3.159708e+36</v>
       </c>
       <c r="E4" t="n">
-        <v>408619.3</v>
+        <v>448947.8</v>
       </c>
       <c r="F4" t="n">
-        <v>37680.094</v>
+        <v>6101.809</v>
       </c>
       <c r="G4" t="n">
-        <v>827.02466</v>
+        <v>565.1306</v>
       </c>
       <c r="H4" t="n">
-        <v>114.96306</v>
+        <v>70.84050999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4794.980799999999</v>
+        <v>1182.285</v>
       </c>
       <c r="J4" t="n">
-        <v>944.44356</v>
+        <v>723.3944</v>
       </c>
       <c r="K4" t="n">
-        <v>54881.588</v>
+        <v>24798.94</v>
       </c>
       <c r="L4" t="n">
-        <v>12238.156</v>
+        <v>7256.47</v>
       </c>
       <c r="M4" t="n">
-        <v>49703.446</v>
+        <v>33485.85</v>
       </c>
       <c r="N4" t="n">
-        <v>53317226000</v>
+        <v>58958530</v>
       </c>
       <c r="O4" t="n">
-        <v>31878997800</v>
+        <v>13083460</v>
       </c>
       <c r="P4" t="n">
-        <v>49843691</v>
+        <v>11736760</v>
       </c>
       <c r="Q4" t="n">
-        <v>18818440000</v>
+        <v>20017400</v>
       </c>
       <c r="R4" t="n">
-        <v>6499.6872</v>
+        <v>2610.454</v>
       </c>
       <c r="S4" t="n">
-        <v>77908.5368</v>
+        <v>2955.136</v>
       </c>
       <c r="T4" t="n">
-        <v>204030780</v>
+        <v>69871080</v>
       </c>
       <c r="U4" t="n">
-        <v>3260495762</v>
+        <v>431873.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2584.1048</v>
+        <v>2114.506</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.43638</v>
+        <v>844.6724</v>
       </c>
       <c r="X4" t="n">
-        <v>11942.282</v>
+        <v>6992.665</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.9102</v>
+        <v>1657.843</v>
       </c>
       <c r="Z4" t="n">
-        <v>2026.0822</v>
+        <v>1914.187</v>
       </c>
       <c r="AA4" t="n">
-        <v>12387.0462</v>
+        <v>1019.271</v>
       </c>
       <c r="AB4" t="n">
-        <v>19038.24</v>
+        <v>12331.15</v>
       </c>
       <c r="AC4" t="n">
-        <v>3424.279</v>
+        <v>1963.867</v>
       </c>
       <c r="AD4" t="n">
-        <v>10165.9518</v>
+        <v>1481.756</v>
       </c>
       <c r="AE4" t="n">
-        <v>8329.5874</v>
+        <v>2082.36</v>
       </c>
       <c r="AF4" t="n">
-        <v>4685991060</v>
+        <v>557110200</v>
       </c>
       <c r="AG4" t="n">
         <v>50</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>139061360000</v>
+        <v>123483100</v>
       </c>
       <c r="D5" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.648544e+34</v>
       </c>
       <c r="E5" t="n">
-        <v>387240.84</v>
+        <v>438953.4</v>
       </c>
       <c r="F5" t="n">
-        <v>37680.094</v>
+        <v>509.1747</v>
       </c>
       <c r="G5" t="n">
-        <v>827.02466</v>
+        <v>565.13</v>
       </c>
       <c r="H5" t="n">
-        <v>114.96306</v>
+        <v>59.20364</v>
       </c>
       <c r="I5" t="n">
-        <v>4794.980799999999</v>
+        <v>928.9477000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>944.44356</v>
+        <v>723.3234</v>
       </c>
       <c r="K5" t="n">
-        <v>54881.588</v>
+        <v>23732.67</v>
       </c>
       <c r="L5" t="n">
-        <v>12238.156</v>
+        <v>7163.081</v>
       </c>
       <c r="M5" t="n">
-        <v>49703.446</v>
+        <v>22601.11</v>
       </c>
       <c r="N5" t="n">
-        <v>53317226000</v>
+        <v>16414520</v>
       </c>
       <c r="O5" t="n">
-        <v>31878997800</v>
+        <v>89962.49000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>41594231</v>
+        <v>7682539</v>
       </c>
       <c r="Q5" t="n">
-        <v>16221790000</v>
+        <v>190983.2</v>
       </c>
       <c r="R5" t="n">
-        <v>6499.6872</v>
+        <v>2568.046</v>
       </c>
       <c r="S5" t="n">
-        <v>77908.5368</v>
+        <v>2954.797</v>
       </c>
       <c r="T5" t="n">
-        <v>204030780</v>
+        <v>51560750</v>
       </c>
       <c r="U5" t="n">
-        <v>3260495762</v>
+        <v>8850.653</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.2674</v>
+        <v>2057.331</v>
       </c>
       <c r="W5" t="n">
-        <v>1048.43638</v>
+        <v>844.6307</v>
       </c>
       <c r="X5" t="n">
-        <v>11942.282</v>
+        <v>6992.664</v>
       </c>
       <c r="Y5" t="n">
-        <v>2300.2062</v>
+        <v>1631.487</v>
       </c>
       <c r="Z5" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA5" t="n">
-        <v>12387.0462</v>
+        <v>671.9601</v>
       </c>
       <c r="AB5" t="n">
-        <v>19017.814</v>
+        <v>10447.37</v>
       </c>
       <c r="AC5" t="n">
-        <v>3424.279</v>
+        <v>1781.179</v>
       </c>
       <c r="AD5" t="n">
-        <v>10165.9518</v>
+        <v>755.3301</v>
       </c>
       <c r="AE5" t="n">
-        <v>8329.5874</v>
+        <v>1873.122</v>
       </c>
       <c r="AF5" t="n">
-        <v>4685991060</v>
+        <v>438655100</v>
       </c>
       <c r="AG5" t="n">
         <v>50</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>139061360000</v>
+        <v>37444890</v>
       </c>
       <c r="D6" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.648544e+34</v>
       </c>
       <c r="E6" t="n">
-        <v>383236.9</v>
+        <v>422625.7</v>
       </c>
       <c r="F6" t="n">
-        <v>37680.094</v>
+        <v>302.2755</v>
       </c>
       <c r="G6" t="n">
-        <v>827.02466</v>
+        <v>565.13</v>
       </c>
       <c r="H6" t="n">
-        <v>114.96306</v>
+        <v>58.8063</v>
       </c>
       <c r="I6" t="n">
-        <v>4657.1086</v>
+        <v>865.1983</v>
       </c>
       <c r="J6" t="n">
-        <v>944.44356</v>
+        <v>723.3234</v>
       </c>
       <c r="K6" t="n">
-        <v>54881.588</v>
+        <v>23732.34</v>
       </c>
       <c r="L6" t="n">
-        <v>12238.156</v>
+        <v>7163.081</v>
       </c>
       <c r="M6" t="n">
-        <v>44549.128</v>
+        <v>22212.81</v>
       </c>
       <c r="N6" t="n">
-        <v>53317226000</v>
+        <v>15000610</v>
       </c>
       <c r="O6" t="n">
-        <v>31878997800</v>
+        <v>7919.291</v>
       </c>
       <c r="P6" t="n">
-        <v>17680869.2</v>
+        <v>7677972</v>
       </c>
       <c r="Q6" t="n">
-        <v>16221790000</v>
+        <v>72153.73</v>
       </c>
       <c r="R6" t="n">
-        <v>6499.6872</v>
+        <v>2561.508</v>
       </c>
       <c r="S6" t="n">
-        <v>77908.5368</v>
+        <v>2954.797</v>
       </c>
       <c r="T6" t="n">
-        <v>204030780</v>
+        <v>46352760</v>
       </c>
       <c r="U6" t="n">
-        <v>3260495762</v>
+        <v>8850.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2123.7202</v>
+        <v>2057.331</v>
       </c>
       <c r="W6" t="n">
-        <v>1048.43638</v>
+        <v>844.6307</v>
       </c>
       <c r="X6" t="n">
-        <v>11942.282</v>
+        <v>6992.664</v>
       </c>
       <c r="Y6" t="n">
-        <v>2300.2062</v>
+        <v>1628.057</v>
       </c>
       <c r="Z6" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA6" t="n">
-        <v>12387.0462</v>
+        <v>625.6869</v>
       </c>
       <c r="AB6" t="n">
-        <v>19017.814</v>
+        <v>10405.11</v>
       </c>
       <c r="AC6" t="n">
-        <v>3424.279</v>
+        <v>1781.172</v>
       </c>
       <c r="AD6" t="n">
-        <v>10165.9518</v>
+        <v>738.0291</v>
       </c>
       <c r="AE6" t="n">
-        <v>8329.5874</v>
+        <v>1848.957</v>
       </c>
       <c r="AF6" t="n">
-        <v>4685991060</v>
+        <v>406727400</v>
       </c>
       <c r="AG6" t="n">
         <v>50</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>139061360000</v>
+        <v>25667.71</v>
       </c>
       <c r="D7" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>3.895415e+19</v>
       </c>
       <c r="E7" t="n">
-        <v>372905.72</v>
+        <v>387226.2</v>
       </c>
       <c r="F7" t="n">
-        <v>37680.094</v>
+        <v>148.2772</v>
       </c>
       <c r="G7" t="n">
-        <v>827.02466</v>
+        <v>565.13</v>
       </c>
       <c r="H7" t="n">
-        <v>114.96306</v>
+        <v>33.72908</v>
       </c>
       <c r="I7" t="n">
-        <v>4657.1086</v>
+        <v>603.8614</v>
       </c>
       <c r="J7" t="n">
-        <v>944.44356</v>
+        <v>718.3678</v>
       </c>
       <c r="K7" t="n">
-        <v>54881.588</v>
+        <v>22868.46</v>
       </c>
       <c r="L7" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M7" t="n">
-        <v>44549.128</v>
+        <v>10296.57</v>
       </c>
       <c r="N7" t="n">
-        <v>53317226000</v>
+        <v>8106710</v>
       </c>
       <c r="O7" t="n">
-        <v>31878997800</v>
+        <v>1014.683</v>
       </c>
       <c r="P7" t="n">
-        <v>17680869.2</v>
+        <v>4132703</v>
       </c>
       <c r="Q7" t="n">
-        <v>16221790000</v>
+        <v>18357.57</v>
       </c>
       <c r="R7" t="n">
-        <v>6499.6872</v>
+        <v>2557.908</v>
       </c>
       <c r="S7" t="n">
-        <v>77908.5368</v>
+        <v>2954.475</v>
       </c>
       <c r="T7" t="n">
-        <v>204030780</v>
+        <v>21823830</v>
       </c>
       <c r="U7" t="n">
-        <v>3260495762</v>
+        <v>8842.186</v>
       </c>
       <c r="V7" t="n">
-        <v>2123.7202</v>
+        <v>1849.897</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.43638</v>
+        <v>844.6306</v>
       </c>
       <c r="X7" t="n">
-        <v>11942.282</v>
+        <v>6992.559</v>
       </c>
       <c r="Y7" t="n">
-        <v>2300.2062</v>
+        <v>1625.147</v>
       </c>
       <c r="Z7" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA7" t="n">
-        <v>12387.0462</v>
+        <v>582.9403</v>
       </c>
       <c r="AB7" t="n">
-        <v>19017.814</v>
+        <v>9224.973</v>
       </c>
       <c r="AC7" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD7" t="n">
-        <v>10165.9518</v>
+        <v>510.8485</v>
       </c>
       <c r="AE7" t="n">
-        <v>8329.5874</v>
+        <v>1821.88</v>
       </c>
       <c r="AF7" t="n">
-        <v>4685991060</v>
+        <v>35132300</v>
       </c>
       <c r="AG7" t="n">
         <v>50</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>139061360000</v>
+        <v>25664.34</v>
       </c>
       <c r="D8" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E8" t="n">
-        <v>372905.72</v>
+        <v>334595.8</v>
       </c>
       <c r="F8" t="n">
-        <v>37680.094</v>
+        <v>146.7863</v>
       </c>
       <c r="G8" t="n">
-        <v>827.02466</v>
+        <v>533.2919000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>114.96306</v>
+        <v>20.89585</v>
       </c>
       <c r="I8" t="n">
-        <v>4657.1086</v>
+        <v>573.9769</v>
       </c>
       <c r="J8" t="n">
-        <v>944.44356</v>
+        <v>718.3486</v>
       </c>
       <c r="K8" t="n">
-        <v>54881.588</v>
+        <v>22423.84</v>
       </c>
       <c r="L8" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M8" t="n">
-        <v>44549.128</v>
+        <v>6963.975</v>
       </c>
       <c r="N8" t="n">
-        <v>53317226000</v>
+        <v>5744555</v>
       </c>
       <c r="O8" t="n">
-        <v>31878997800</v>
+        <v>1004.802</v>
       </c>
       <c r="P8" t="n">
-        <v>17680869.2</v>
+        <v>2981559</v>
       </c>
       <c r="Q8" t="n">
-        <v>16221790000</v>
+        <v>18355.43</v>
       </c>
       <c r="R8" t="n">
-        <v>6499.6872</v>
+        <v>2556.962</v>
       </c>
       <c r="S8" t="n">
-        <v>77908.5368</v>
+        <v>2935.959</v>
       </c>
       <c r="T8" t="n">
-        <v>204030780</v>
+        <v>13319990</v>
       </c>
       <c r="U8" t="n">
-        <v>3260495762</v>
+        <v>8840.314</v>
       </c>
       <c r="V8" t="n">
-        <v>2123.7202</v>
+        <v>1807.645</v>
       </c>
       <c r="W8" t="n">
-        <v>1048.43638</v>
+        <v>844.6306</v>
       </c>
       <c r="X8" t="n">
-        <v>11942.282</v>
+        <v>6992.387</v>
       </c>
       <c r="Y8" t="n">
-        <v>2300.2062</v>
+        <v>1625.141</v>
       </c>
       <c r="Z8" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA8" t="n">
-        <v>12387.0462</v>
+        <v>579.0925999999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>19017.814</v>
+        <v>8458.362999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD8" t="n">
-        <v>10165.9518</v>
+        <v>509.189</v>
       </c>
       <c r="AE8" t="n">
-        <v>8329.5874</v>
+        <v>1810.906</v>
       </c>
       <c r="AF8" t="n">
-        <v>4685991060</v>
+        <v>1151515</v>
       </c>
       <c r="AG8" t="n">
         <v>50</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>139061360000</v>
+        <v>25661.55</v>
       </c>
       <c r="D9" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E9" t="n">
-        <v>372905.72</v>
+        <v>299348.6</v>
       </c>
       <c r="F9" t="n">
-        <v>37680.094</v>
+        <v>146.1595</v>
       </c>
       <c r="G9" t="n">
-        <v>827.02466</v>
+        <v>533.2919000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>114.96306</v>
+        <v>14.17519</v>
       </c>
       <c r="I9" t="n">
-        <v>4657.1086</v>
+        <v>573.9769</v>
       </c>
       <c r="J9" t="n">
-        <v>944.44356</v>
+        <v>663.6271</v>
       </c>
       <c r="K9" t="n">
-        <v>54881.588</v>
+        <v>22046.61</v>
       </c>
       <c r="L9" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M9" t="n">
-        <v>44549.128</v>
+        <v>5272.633</v>
       </c>
       <c r="N9" t="n">
-        <v>53317226000</v>
+        <v>4730284</v>
       </c>
       <c r="O9" t="n">
-        <v>31878997800</v>
+        <v>1004.655</v>
       </c>
       <c r="P9" t="n">
-        <v>17680869.2</v>
+        <v>2156856</v>
       </c>
       <c r="Q9" t="n">
-        <v>16221790000</v>
+        <v>18353.13</v>
       </c>
       <c r="R9" t="n">
-        <v>6499.6872</v>
+        <v>2555.25</v>
       </c>
       <c r="S9" t="n">
-        <v>77908.5368</v>
+        <v>2935.915</v>
       </c>
       <c r="T9" t="n">
-        <v>204030780</v>
+        <v>7304204</v>
       </c>
       <c r="U9" t="n">
-        <v>3260495762</v>
+        <v>8836.906000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>2123.7202</v>
+        <v>1807.506</v>
       </c>
       <c r="W9" t="n">
-        <v>1048.43638</v>
+        <v>844.6306</v>
       </c>
       <c r="X9" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y9" t="n">
-        <v>2300.2062</v>
+        <v>1271.722</v>
       </c>
       <c r="Z9" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA9" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB9" t="n">
-        <v>19017.814</v>
+        <v>8458.362999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD9" t="n">
-        <v>10165.9518</v>
+        <v>508.3528</v>
       </c>
       <c r="AE9" t="n">
-        <v>8329.5874</v>
+        <v>1809.238</v>
       </c>
       <c r="AF9" t="n">
-        <v>4685991060</v>
+        <v>956970.1</v>
       </c>
       <c r="AG9" t="n">
         <v>50</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>139061360000</v>
+        <v>25657.75</v>
       </c>
       <c r="D10" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E10" t="n">
-        <v>372905.72</v>
+        <v>274957.3</v>
       </c>
       <c r="F10" t="n">
-        <v>37680.094</v>
+        <v>145.7173</v>
       </c>
       <c r="G10" t="n">
-        <v>827.02466</v>
+        <v>533.2919000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>114.96306</v>
+        <v>5.080707</v>
       </c>
       <c r="I10" t="n">
-        <v>4657.1086</v>
+        <v>538.2427</v>
       </c>
       <c r="J10" t="n">
-        <v>944.44356</v>
+        <v>663.6271</v>
       </c>
       <c r="K10" t="n">
-        <v>54881.588</v>
+        <v>22043.37</v>
       </c>
       <c r="L10" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M10" t="n">
-        <v>44549.128</v>
+        <v>3923.007</v>
       </c>
       <c r="N10" t="n">
-        <v>53317226000</v>
+        <v>4284162</v>
       </c>
       <c r="O10" t="n">
-        <v>31878997800</v>
+        <v>1004.627</v>
       </c>
       <c r="P10" t="n">
-        <v>17680869.2</v>
+        <v>1592488</v>
       </c>
       <c r="Q10" t="n">
-        <v>16221790000</v>
+        <v>18350.76</v>
       </c>
       <c r="R10" t="n">
-        <v>6499.6872</v>
+        <v>2554.867</v>
       </c>
       <c r="S10" t="n">
-        <v>77908.5368</v>
+        <v>2935.893</v>
       </c>
       <c r="T10" t="n">
-        <v>204030780</v>
+        <v>4716421</v>
       </c>
       <c r="U10" t="n">
-        <v>3260495762</v>
+        <v>8835.07</v>
       </c>
       <c r="V10" t="n">
-        <v>2123.7202</v>
+        <v>1807.412</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.43638</v>
+        <v>844.6306</v>
       </c>
       <c r="X10" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y10" t="n">
-        <v>2300.2062</v>
+        <v>1225.074</v>
       </c>
       <c r="Z10" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA10" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB10" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC10" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD10" t="n">
-        <v>10165.9518</v>
+        <v>507.988</v>
       </c>
       <c r="AE10" t="n">
-        <v>8329.5874</v>
+        <v>1808.413</v>
       </c>
       <c r="AF10" t="n">
-        <v>4685991060</v>
+        <v>956892.4</v>
       </c>
       <c r="AG10" t="n">
         <v>50</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>139061360000</v>
+        <v>25654.28</v>
       </c>
       <c r="D11" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E11" t="n">
-        <v>372905.72</v>
+        <v>251716.1</v>
       </c>
       <c r="F11" t="n">
-        <v>37680.094</v>
+        <v>145.2372</v>
       </c>
       <c r="G11" t="n">
-        <v>827.02466</v>
+        <v>533.2919000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>114.96306</v>
+        <v>1.975765</v>
       </c>
       <c r="I11" t="n">
-        <v>4657.1086</v>
+        <v>538.2241</v>
       </c>
       <c r="J11" t="n">
-        <v>944.44356</v>
+        <v>654.6725</v>
       </c>
       <c r="K11" t="n">
-        <v>54881.588</v>
+        <v>22040.18</v>
       </c>
       <c r="L11" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M11" t="n">
-        <v>44549.128</v>
+        <v>3089.116</v>
       </c>
       <c r="N11" t="n">
-        <v>53317226000</v>
+        <v>4003634</v>
       </c>
       <c r="O11" t="n">
-        <v>31878997800</v>
+        <v>1004.599</v>
       </c>
       <c r="P11" t="n">
-        <v>17680869.2</v>
+        <v>1190414</v>
       </c>
       <c r="Q11" t="n">
-        <v>16221790000</v>
+        <v>18348.15</v>
       </c>
       <c r="R11" t="n">
-        <v>6499.6872</v>
+        <v>2554.446</v>
       </c>
       <c r="S11" t="n">
-        <v>77908.5368</v>
+        <v>2935.884</v>
       </c>
       <c r="T11" t="n">
-        <v>204030780</v>
+        <v>2763945</v>
       </c>
       <c r="U11" t="n">
-        <v>3260495762</v>
+        <v>8833.809999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>2123.7202</v>
+        <v>1807.319</v>
       </c>
       <c r="W11" t="n">
-        <v>1048.43638</v>
+        <v>844.6306</v>
       </c>
       <c r="X11" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y11" t="n">
-        <v>2300.2062</v>
+        <v>1224.792</v>
       </c>
       <c r="Z11" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA11" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB11" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC11" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD11" t="n">
-        <v>10165.9518</v>
+        <v>507.8068</v>
       </c>
       <c r="AE11" t="n">
-        <v>8329.5874</v>
+        <v>1807.501</v>
       </c>
       <c r="AF11" t="n">
-        <v>4685991060</v>
+        <v>956815.9</v>
       </c>
       <c r="AG11" t="n">
         <v>50</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>139061360000</v>
+        <v>25650.78</v>
       </c>
       <c r="D12" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E12" t="n">
-        <v>372905.72</v>
+        <v>233959</v>
       </c>
       <c r="F12" t="n">
-        <v>37680.094</v>
+        <v>144.6932</v>
       </c>
       <c r="G12" t="n">
-        <v>827.02466</v>
+        <v>488.5197</v>
       </c>
       <c r="H12" t="n">
-        <v>114.96306</v>
+        <v>1.832684</v>
       </c>
       <c r="I12" t="n">
-        <v>4657.1086</v>
+        <v>516.4556</v>
       </c>
       <c r="J12" t="n">
-        <v>944.44356</v>
+        <v>654.6725</v>
       </c>
       <c r="K12" t="n">
-        <v>54881.588</v>
+        <v>22007.3</v>
       </c>
       <c r="L12" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M12" t="n">
-        <v>44549.128</v>
+        <v>2367.239</v>
       </c>
       <c r="N12" t="n">
-        <v>53317226000</v>
+        <v>3753229</v>
       </c>
       <c r="O12" t="n">
-        <v>31878997800</v>
+        <v>1004.573</v>
       </c>
       <c r="P12" t="n">
-        <v>17680869.2</v>
+        <v>901736.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>16221790000</v>
+        <v>18345.95</v>
       </c>
       <c r="R12" t="n">
-        <v>6499.6872</v>
+        <v>2554.124</v>
       </c>
       <c r="S12" t="n">
-        <v>77908.5368</v>
+        <v>2935.881</v>
       </c>
       <c r="T12" t="n">
-        <v>204030780</v>
+        <v>1977576</v>
       </c>
       <c r="U12" t="n">
-        <v>3260495762</v>
+        <v>8832.414000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>2123.7202</v>
+        <v>1807.269</v>
       </c>
       <c r="W12" t="n">
-        <v>1048.43638</v>
+        <v>817.6156999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y12" t="n">
-        <v>2300.2062</v>
+        <v>1224.792</v>
       </c>
       <c r="Z12" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA12" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB12" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC12" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD12" t="n">
-        <v>10165.9518</v>
+        <v>507.746</v>
       </c>
       <c r="AE12" t="n">
-        <v>8329.5874</v>
+        <v>1807.263</v>
       </c>
       <c r="AF12" t="n">
-        <v>4685991060</v>
+        <v>956733.5</v>
       </c>
       <c r="AG12" t="n">
         <v>50</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>139061360000</v>
+        <v>25646.59</v>
       </c>
       <c r="D13" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E13" t="n">
-        <v>372905.72</v>
+        <v>218413</v>
       </c>
       <c r="F13" t="n">
-        <v>37680.094</v>
+        <v>143.6005</v>
       </c>
       <c r="G13" t="n">
-        <v>827.02466</v>
+        <v>488.5197</v>
       </c>
       <c r="H13" t="n">
-        <v>114.96306</v>
+        <v>1.832684</v>
       </c>
       <c r="I13" t="n">
-        <v>4657.1086</v>
+        <v>516.4556</v>
       </c>
       <c r="J13" t="n">
-        <v>944.44356</v>
+        <v>654.6725</v>
       </c>
       <c r="K13" t="n">
-        <v>54881.588</v>
+        <v>21875.88</v>
       </c>
       <c r="L13" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M13" t="n">
-        <v>44549.128</v>
+        <v>1797.105</v>
       </c>
       <c r="N13" t="n">
-        <v>53317226000</v>
+        <v>3578310</v>
       </c>
       <c r="O13" t="n">
-        <v>31878997800</v>
+        <v>1004.547</v>
       </c>
       <c r="P13" t="n">
-        <v>17680869.2</v>
+        <v>679793.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>16221790000</v>
+        <v>18343.31</v>
       </c>
       <c r="R13" t="n">
-        <v>6499.6872</v>
+        <v>2553.806</v>
       </c>
       <c r="S13" t="n">
-        <v>77908.5368</v>
+        <v>2935.879</v>
       </c>
       <c r="T13" t="n">
-        <v>204030780</v>
+        <v>1620311</v>
       </c>
       <c r="U13" t="n">
-        <v>3260495762</v>
+        <v>8831.200999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>2123.7202</v>
+        <v>1807.217</v>
       </c>
       <c r="W13" t="n">
-        <v>1048.43638</v>
+        <v>817.0263</v>
       </c>
       <c r="X13" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y13" t="n">
-        <v>2300.2062</v>
+        <v>1224.792</v>
       </c>
       <c r="Z13" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA13" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB13" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC13" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD13" t="n">
-        <v>10165.9518</v>
+        <v>507.7132</v>
       </c>
       <c r="AE13" t="n">
-        <v>8329.5874</v>
+        <v>1806.749</v>
       </c>
       <c r="AF13" t="n">
-        <v>4685991060</v>
+        <v>956662.7</v>
       </c>
       <c r="AG13" t="n">
         <v>50</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>139061360000</v>
+        <v>25643.3</v>
       </c>
       <c r="D14" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E14" t="n">
-        <v>372905.72</v>
+        <v>204830.6</v>
       </c>
       <c r="F14" t="n">
-        <v>37680.094</v>
+        <v>141.6165</v>
       </c>
       <c r="G14" t="n">
-        <v>827.02466</v>
+        <v>488.5197</v>
       </c>
       <c r="H14" t="n">
-        <v>114.96306</v>
+        <v>1.7158</v>
       </c>
       <c r="I14" t="n">
-        <v>4657.1086</v>
+        <v>456.6111</v>
       </c>
       <c r="J14" t="n">
-        <v>944.44356</v>
+        <v>654.6725</v>
       </c>
       <c r="K14" t="n">
-        <v>54881.588</v>
+        <v>21868.87</v>
       </c>
       <c r="L14" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M14" t="n">
-        <v>44549.128</v>
+        <v>1326.144</v>
       </c>
       <c r="N14" t="n">
-        <v>53317226000</v>
+        <v>3408177</v>
       </c>
       <c r="O14" t="n">
-        <v>31878997800</v>
+        <v>1004.521</v>
       </c>
       <c r="P14" t="n">
-        <v>17680869.2</v>
+        <v>511546.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>16221790000</v>
+        <v>18340</v>
       </c>
       <c r="R14" t="n">
-        <v>6499.6872</v>
+        <v>2553.413</v>
       </c>
       <c r="S14" t="n">
-        <v>77908.5368</v>
+        <v>2935.878</v>
       </c>
       <c r="T14" t="n">
-        <v>204030780</v>
+        <v>1356985</v>
       </c>
       <c r="U14" t="n">
-        <v>3260495762</v>
+        <v>8829.904</v>
       </c>
       <c r="V14" t="n">
-        <v>2123.7202</v>
+        <v>1807.184</v>
       </c>
       <c r="W14" t="n">
-        <v>1048.43638</v>
+        <v>817.0263</v>
       </c>
       <c r="X14" t="n">
-        <v>11942.282</v>
+        <v>6992.386</v>
       </c>
       <c r="Y14" t="n">
-        <v>2300.2062</v>
+        <v>1148.059</v>
       </c>
       <c r="Z14" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA14" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB14" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC14" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD14" t="n">
-        <v>10165.9518</v>
+        <v>507.7021</v>
       </c>
       <c r="AE14" t="n">
-        <v>8329.5874</v>
+        <v>1806.27</v>
       </c>
       <c r="AF14" t="n">
-        <v>4685991060</v>
+        <v>956588.1</v>
       </c>
       <c r="AG14" t="n">
         <v>50</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>139061360000</v>
+        <v>25640.11</v>
       </c>
       <c r="D15" t="n">
-        <v>3.16561543632402e+85</v>
+        <v>8.336128e+18</v>
       </c>
       <c r="E15" t="n">
-        <v>372905.72</v>
+        <v>191298</v>
       </c>
       <c r="F15" t="n">
-        <v>37680.094</v>
+        <v>78.69731</v>
       </c>
       <c r="G15" t="n">
-        <v>827.02466</v>
+        <v>488.5197</v>
       </c>
       <c r="H15" t="n">
-        <v>114.96306</v>
+        <v>0.6114943</v>
       </c>
       <c r="I15" t="n">
-        <v>4657.1086</v>
+        <v>456.6111</v>
       </c>
       <c r="J15" t="n">
-        <v>944.44356</v>
+        <v>654.6725</v>
       </c>
       <c r="K15" t="n">
-        <v>54881.588</v>
+        <v>21748.4</v>
       </c>
       <c r="L15" t="n">
-        <v>12238.156</v>
+        <v>7138.105</v>
       </c>
       <c r="M15" t="n">
-        <v>44549.128</v>
+        <v>903.9109</v>
       </c>
       <c r="N15" t="n">
-        <v>53317226000</v>
+        <v>3273170</v>
       </c>
       <c r="O15" t="n">
-        <v>31878997800</v>
+        <v>1004.496</v>
       </c>
       <c r="P15" t="n">
-        <v>17680869.2</v>
+        <v>391694.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>16221790000</v>
+        <v>18336.81</v>
       </c>
       <c r="R15" t="n">
-        <v>6499.6872</v>
+        <v>2553.07</v>
       </c>
       <c r="S15" t="n">
-        <v>77908.5368</v>
+        <v>2935.877</v>
       </c>
       <c r="T15" t="n">
-        <v>204030780</v>
+        <v>1181591</v>
       </c>
       <c r="U15" t="n">
-        <v>3260495762</v>
+        <v>8828.597</v>
       </c>
       <c r="V15" t="n">
-        <v>2123.7202</v>
+        <v>1807.165</v>
       </c>
       <c r="W15" t="n">
-        <v>1048.43638</v>
+        <v>786.1466</v>
       </c>
       <c r="X15" t="n">
-        <v>11942.282</v>
+        <v>6992.381</v>
       </c>
       <c r="Y15" t="n">
-        <v>2300.2062</v>
+        <v>1148.059</v>
       </c>
       <c r="Z15" t="n">
-        <v>2026.0822</v>
+        <v>1914.185</v>
       </c>
       <c r="AA15" t="n">
-        <v>12387.0462</v>
+        <v>579.006</v>
       </c>
       <c r="AB15" t="n">
-        <v>19017.814</v>
+        <v>7938.125</v>
       </c>
       <c r="AC15" t="n">
-        <v>3424.279</v>
+        <v>1223.222</v>
       </c>
       <c r="AD15" t="n">
-        <v>10165.9518</v>
+        <v>507.6971</v>
       </c>
       <c r="AE15" t="n">
-        <v>8329.5874</v>
+        <v>1806.235</v>
       </c>
       <c r="AF15" t="n">
-        <v>4685991060</v>
+        <v>956515.1</v>
       </c>
       <c r="AG15" t="n">
         <v>50</v>
